--- a/sample/excel/Demo_3.xlsx
+++ b/sample/excel/Demo_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khair\Documents\GitHub\repositories\rendr\sample\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A5D5C0-6B20-476B-8644-FF87C805A258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2768A6-8509-4348-A52C-53A140B20138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18015" yWindow="600" windowWidth="18195" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18015" yWindow="195" windowWidth="18195" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="8" r:id="rId1"/>
@@ -67,12 +67,6 @@
     <t>Off-Balance Sheet Swaps</t>
   </si>
   <si>
-    <t>Current Gain/Loss :: currGain</t>
-  </si>
-  <si>
-    <t>Previous Gain/Loss :: prevGain</t>
-  </si>
-  <si>
     <t>Currency Overlay</t>
   </si>
   <si>
@@ -164,6 +158,12 @@
   </si>
   <si>
     <t>!!v conversion</t>
+  </si>
+  <si>
+    <t>Previous Gain/Loss</t>
+  </si>
+  <si>
+    <t>Current Gain/Loss</t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1367,7 @@
   <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1399,10 +1399,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
@@ -1413,7 +1413,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I5" s="14"/>
     </row>
@@ -1422,10 +1422,10 @@
     </row>
     <row r="7" spans="2:9" ht="15" customHeight="1">
       <c r="B7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>5</v>
@@ -1443,7 +1443,7 @@
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>1</v>
@@ -1454,22 +1454,22 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I9" s="14"/>
     </row>
@@ -1510,11 +1510,11 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1522,11 +1522,11 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1575,20 +1575,20 @@
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="2:9" ht="45">
+    <row r="21" spans="2:9" ht="30">
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="I21" s="14"/>
     </row>
@@ -1597,10 +1597,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E22" s="8" t="e">
         <f>D22-C22</f>
@@ -1610,13 +1610,13 @@
     </row>
     <row r="23" spans="2:9" ht="30">
       <c r="B23" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E23" s="9" t="e">
         <f t="shared" ref="E23:E24" si="0">D23-C23</f>
@@ -1626,13 +1626,13 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E24" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1645,13 +1645,13 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I26" s="14"/>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C27" s="4" t="e">
         <f>SUM(E22:E24)</f>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C28" s="4" t="e">
         <f>E24</f>
@@ -1702,6 +1702,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008CDC787A71DDF645B3B1EC4B4C087709" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfcc5dabae62faba7569d214b4f3e22c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -1815,33 +1830,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{835BF43D-5F5B-4A92-8B6A-74ACA0EB3617}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FA689A5-2DDE-4193-801A-F36D3E40FA78}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1862,9 +1854,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FA689A5-2DDE-4193-801A-F36D3E40FA78}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{835BF43D-5F5B-4A92-8B6A-74ACA0EB3617}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/sample/excel/Demo_3.xlsx
+++ b/sample/excel/Demo_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khair\Documents\GitHub\repositories\rendr\sample\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2768A6-8509-4348-A52C-53A140B20138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534BEB73-9480-4C3F-8854-C8B6187B12E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18015" yWindow="195" windowWidth="18195" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12270" yWindow="1110" windowWidth="23055" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="8" r:id="rId1"/>
@@ -97,24 +97,12 @@
     <t>## month</t>
   </si>
   <si>
-    <t>!!v assetCode</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
-    <t>!!v name</t>
-  </si>
-  <si>
     <t>Asset Name</t>
   </si>
   <si>
-    <t>!!v assetPrice</t>
-  </si>
-  <si>
-    <t>!!v data</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -139,31 +127,43 @@
     <t>## onCurrGain</t>
   </si>
   <si>
-    <t>!!&gt; assetCode</t>
-  </si>
-  <si>
-    <t>!!&gt; name</t>
-  </si>
-  <si>
-    <t>!!&gt; assetPrice</t>
-  </si>
-  <si>
-    <t>!!&gt; data</t>
-  </si>
-  <si>
-    <t>!!&gt; loc</t>
-  </si>
-  <si>
-    <t>!!v loc</t>
-  </si>
-  <si>
-    <t>!!v conversion</t>
-  </si>
-  <si>
     <t>Previous Gain/Loss</t>
   </si>
   <si>
     <t>Current Gain/Loss</t>
+  </si>
+  <si>
+    <t>!!v Code</t>
+  </si>
+  <si>
+    <t>!!v Name</t>
+  </si>
+  <si>
+    <t>!!v Price</t>
+  </si>
+  <si>
+    <t>!!v Data</t>
+  </si>
+  <si>
+    <t>!!v Location</t>
+  </si>
+  <si>
+    <t>!!v Conversion</t>
+  </si>
+  <si>
+    <t>!!&gt; Code</t>
+  </si>
+  <si>
+    <t>!!&gt; Name</t>
+  </si>
+  <si>
+    <t>!!&gt; Price</t>
+  </si>
+  <si>
+    <t>!!&gt; Data</t>
+  </si>
+  <si>
+    <t>!!&gt; Location</t>
   </si>
 </sst>
 </file>
@@ -1366,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACD61B2-0FA3-49FF-B063-82834D198081}">
   <dimension ref="B2:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1422,10 +1422,10 @@
     </row>
     <row r="7" spans="2:9" ht="15" customHeight="1">
       <c r="B7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>23</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>5</v>
@@ -1443,7 +1443,7 @@
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>1</v>
@@ -1454,22 +1454,22 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I9" s="14"/>
     </row>
@@ -1510,11 +1510,11 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1522,11 +1522,11 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1582,10 +1582,10 @@
     <row r="21" spans="2:9" ht="30">
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>11</v>
@@ -1597,10 +1597,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E22" s="8" t="e">
         <f>D22-C22</f>
@@ -1613,10 +1613,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E23" s="9" t="e">
         <f t="shared" ref="E23:E24" si="0">D23-C23</f>
@@ -1629,10 +1629,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E24" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1702,21 +1702,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008CDC787A71DDF645B3B1EC4B4C087709" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfcc5dabae62faba7569d214b4f3e22c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -1830,10 +1815,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FA689A5-2DDE-4193-801A-F36D3E40FA78}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{835BF43D-5F5B-4A92-8B6A-74ACA0EB3617}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1854,17 +1862,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{835BF43D-5F5B-4A92-8B6A-74ACA0EB3617}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FA689A5-2DDE-4193-801A-F36D3E40FA78}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>